--- a/000.커리큐럼/주단위상세일정엑셀/실시시험일정.xlsx
+++ b/000.커리큐럼/주단위상세일정엑셀/실시시험일정.xlsx
@@ -364,19 +364,19 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -677,13 +677,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
     </row>
     <row r="2" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -715,8 +715,8 @@
       <c r="D3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="16">
-        <v>44623</v>
+      <c r="E3" s="14">
+        <v>44641</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -732,7 +732,7 @@
       <c r="D4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="17">
+      <c r="E4" s="15">
         <v>44642</v>
       </c>
     </row>
@@ -749,7 +749,7 @@
       <c r="D5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="17">
+      <c r="E5" s="15">
         <v>44649</v>
       </c>
     </row>
@@ -766,7 +766,7 @@
       <c r="D6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="17">
+      <c r="E6" s="15">
         <v>44663</v>
       </c>
     </row>
@@ -783,7 +783,7 @@
       <c r="D7" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="18">
+      <c r="E7" s="16">
         <v>44671</v>
       </c>
     </row>
